--- a/server/data/item/modifiedItem.xlsx
+++ b/server/data/item/modifiedItem.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>Advance Rentals Billed</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
-      <c r="D2" t="str">
-        <v/>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -481,7 +482,7 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H2" t="str">
         <v/>
@@ -493,7 +494,7 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>Income in Advance</v>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -522,16 +523,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Arthole</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
-      <c r="D3" t="str">
-        <v/>
+      <c r="D3">
+        <v>500</v>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -540,7 +541,7 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -552,7 +553,7 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>Income 11 Mackay:Arthole</v>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -581,16 +582,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Audomilitia (Pty) Ltd</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
-      <c r="D4" t="str">
-        <v/>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <v/>
@@ -599,7 +600,7 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -611,7 +612,7 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>Income 11 Mackay:Audiomilitia (Pty) Ltd</v>
       </c>
       <c r="L4" t="str">
         <v/>
@@ -640,16 +641,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Bank Charges</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
-      <c r="D5" t="str">
-        <v/>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="str">
         <v/>
@@ -658,7 +659,7 @@
         <v/>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -670,7 +671,7 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>Bank Charges</v>
       </c>
       <c r="L5" t="str">
         <v/>
@@ -699,16 +700,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Blue Motion</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
-      <c r="D6" t="str">
-        <v/>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -717,7 +718,7 @@
         <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -729,7 +730,7 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>Income 11 Mackay:Blue Motion</v>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -758,16 +759,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>Capitol Collective</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
-      <c r="D7" t="str">
-        <v/>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="str">
         <v/>
@@ -776,7 +777,7 @@
         <v/>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H7" t="str">
         <v/>
@@ -788,7 +789,7 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>Income 11 Mackay:Capitol Collective</v>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -817,16 +818,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>Cash Sales</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
-      <c r="D8" t="str">
-        <v/>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="str">
         <v/>
@@ -835,7 +836,7 @@
         <v/>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H8" t="str">
         <v/>
@@ -847,7 +848,7 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>Income 11 Mackay:Cash Sales</v>
       </c>
       <c r="L8" t="str">
         <v/>
@@ -876,16 +877,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v/>
+        <v>Cleaning 11 Mackay</v>
       </c>
       <c r="B9" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C9" t="str">
         <v/>
       </c>
-      <c r="D9" t="str">
-        <v/>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -894,7 +895,7 @@
         <v/>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H9" t="str">
         <v/>
@@ -906,7 +907,7 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>Income 11 Mackay:Cleaning 11 Makcay</v>
       </c>
       <c r="L9" t="str">
         <v/>
@@ -935,16 +936,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v/>
+        <v>Cleaning 18 Mackay</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C10" t="str">
         <v/>
       </c>
-      <c r="D10" t="str">
-        <v/>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="str">
         <v/>
@@ -953,7 +954,7 @@
         <v/>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H10" t="str">
         <v/>
@@ -965,7 +966,7 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v/>
+        <v>Income 18 Mackay:Cleaning 18 Mackay</v>
       </c>
       <c r="L10" t="str">
         <v/>
@@ -994,16 +995,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>Dondoo Studios</v>
       </c>
       <c r="B11" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C11" t="str">
         <v/>
       </c>
-      <c r="D11" t="str">
-        <v/>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -1012,7 +1013,7 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H11" t="str">
         <v/>
@@ -1024,7 +1025,7 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v/>
+        <v>Income 11 Mackay:Dondoo Studios (Pty) Ltd</v>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -1053,16 +1054,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>Dopezuluboi Productions</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
-      <c r="D12" t="str">
-        <v/>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -1071,7 +1072,7 @@
         <v/>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -1083,7 +1084,7 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>Income 11 Mackay:Dopezuluboi Productions</v>
       </c>
       <c r="L12" t="str">
         <v/>
@@ -1112,16 +1113,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v/>
+        <v>Dusk Too Dawn</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
-      <c r="D13" t="str">
-        <v/>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -1130,7 +1131,7 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -1142,7 +1143,7 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v/>
+        <v>Income 11 Mackay:Dusk Too Dawn</v>
       </c>
       <c r="L13" t="str">
         <v/>
@@ -1171,16 +1172,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v/>
+        <v>Effluent</v>
       </c>
       <c r="B14" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C14" t="str">
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <v/>
+        <v>Effluent Estimate</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="str">
         <v/>
@@ -1189,7 +1190,7 @@
         <v/>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H14" t="str">
         <v/>
@@ -1201,7 +1202,7 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v/>
+        <v>Income 11 Mackay:Effluent</v>
       </c>
       <c r="L14" t="str">
         <v/>
@@ -1230,16 +1231,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v/>
+        <v>Egg Films</v>
       </c>
       <c r="B15" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C15" t="str">
         <v/>
       </c>
-      <c r="D15" t="str">
-        <v/>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -1248,7 +1249,7 @@
         <v/>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H15" t="str">
         <v/>
@@ -1260,7 +1261,7 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v/>
+        <v>Income 11 Mackay:Egg Films</v>
       </c>
       <c r="L15" t="str">
         <v/>
@@ -1289,16 +1290,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>Electricity</v>
       </c>
       <c r="B16" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
+        <v>Electricity estimate</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" t="str">
         <v/>
@@ -1307,7 +1308,7 @@
         <v/>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -1319,7 +1320,7 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>Income 11 Mackay:Electricity</v>
       </c>
       <c r="L16" t="str">
         <v/>
@@ -1348,16 +1349,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>Electricity 11 Mackay</v>
       </c>
       <c r="B17" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C17" t="str">
         <v/>
       </c>
-      <c r="D17" t="str">
-        <v/>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17" t="str">
         <v/>
@@ -1366,7 +1367,7 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H17" t="str">
         <v/>
@@ -1378,7 +1379,7 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v/>
+        <v>Income 11 Mackay:Electricity 11 Mackay</v>
       </c>
       <c r="L17" t="str">
         <v/>
@@ -1407,16 +1408,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v/>
+        <v>Electricity 18 Mackay</v>
       </c>
       <c r="B18" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C18" t="str">
         <v/>
       </c>
-      <c r="D18" t="str">
-        <v/>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18" t="str">
         <v/>
@@ -1425,7 +1426,7 @@
         <v/>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H18" t="str">
         <v/>
@@ -1437,7 +1438,7 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v/>
+        <v>Income 18 Mackay:Electricity 18 Mackay</v>
       </c>
       <c r="L18" t="str">
         <v/>
@@ -1466,16 +1467,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v/>
+        <v>Electricity 9 Mackay</v>
       </c>
       <c r="B19" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C19" t="str">
         <v/>
       </c>
-      <c r="D19" t="str">
-        <v/>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19" t="str">
         <v/>
@@ -1484,7 +1485,7 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1496,7 +1497,7 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v/>
+        <v>Income 9 Mackay:Electricity 9 Mackay</v>
       </c>
       <c r="L19" t="str">
         <v/>
@@ -1525,16 +1526,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v/>
+        <v>Events / Film Shoots</v>
       </c>
       <c r="B20" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C20" t="str">
         <v/>
       </c>
-      <c r="D20" t="str">
-        <v/>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -1543,7 +1544,7 @@
         <v/>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1555,7 +1556,7 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v/>
+        <v>Income 11 Mackay:Events / Film Shoots</v>
       </c>
       <c r="L20" t="str">
         <v/>
@@ -1584,16 +1585,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v/>
+        <v>Exposure</v>
       </c>
       <c r="B21" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C21" t="str">
         <v/>
       </c>
-      <c r="D21" t="str">
-        <v/>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" t="str">
         <v/>
@@ -1602,7 +1603,7 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1614,7 +1615,7 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>Income 11 Mackay:Exposure</v>
       </c>
       <c r="L21" t="str">
         <v/>
@@ -1643,16 +1644,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v/>
+        <v>Fallen Heroes</v>
       </c>
       <c r="B22" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C22" t="str">
         <v/>
       </c>
-      <c r="D22" t="str">
-        <v/>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -1661,7 +1662,7 @@
         <v/>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1673,7 +1674,7 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>Income 11 Mackay:Fallen Heroes</v>
       </c>
       <c r="L22" t="str">
         <v/>
@@ -1702,16 +1703,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v/>
+        <v>Forge-me</v>
       </c>
       <c r="B23" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
-      <c r="D23" t="str">
-        <v/>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23" t="str">
         <v/>
@@ -1720,7 +1721,7 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1732,7 +1733,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>Income 11 Mackay:Forge Ignite Media and Entertai</v>
       </c>
       <c r="L23" t="str">
         <v/>
@@ -1761,16 +1762,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v/>
+        <v>General Post</v>
       </c>
       <c r="B24" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C24" t="str">
         <v/>
       </c>
-      <c r="D24" t="str">
-        <v/>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24" t="str">
         <v/>
@@ -1779,7 +1780,7 @@
         <v/>
       </c>
       <c r="G24" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1791,7 +1792,7 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>Income 11 Mackay:General Post</v>
       </c>
       <c r="L24" t="str">
         <v/>
@@ -1820,16 +1821,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v/>
+        <v>Headspace Neuromarketing</v>
       </c>
       <c r="B25" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
-      <c r="D25" t="str">
-        <v/>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25" t="str">
         <v/>
@@ -1838,7 +1839,7 @@
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -1850,7 +1851,7 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <v/>
+        <v>Income 11 Mackay:Headspace Neuromarketing</v>
       </c>
       <c r="L25" t="str">
         <v/>
@@ -1879,10 +1880,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v/>
+        <v>Hours</v>
       </c>
       <c r="B26" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C26" t="str">
         <v/>
@@ -1909,7 +1910,7 @@
         <v/>
       </c>
       <c r="K26" t="str">
-        <v/>
+        <v>Sales</v>
       </c>
       <c r="L26" t="str">
         <v/>
@@ -1938,16 +1939,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v/>
+        <v>House A Rent</v>
       </c>
       <c r="B27" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C27" t="str">
         <v/>
       </c>
-      <c r="D27" t="str">
-        <v/>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27" t="str">
         <v/>
@@ -1956,7 +1957,7 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H27" t="str">
         <v/>
@@ -1968,7 +1969,7 @@
         <v/>
       </c>
       <c r="K27" t="str">
-        <v/>
+        <v>Income 18 Mackay:Rent House A</v>
       </c>
       <c r="L27" t="str">
         <v/>
@@ -1997,16 +1998,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
+        <v>House B</v>
       </c>
       <c r="B28" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C28" t="str">
         <v/>
       </c>
-      <c r="D28" t="str">
-        <v/>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" t="str">
         <v/>
@@ -2015,7 +2016,7 @@
         <v/>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -2027,7 +2028,7 @@
         <v/>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>Income 18 Mackay:Rent House B</v>
       </c>
       <c r="L28" t="str">
         <v/>
@@ -2056,16 +2057,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v/>
+        <v>House on Fire Post</v>
       </c>
       <c r="B29" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C29" t="str">
         <v/>
       </c>
-      <c r="D29" t="str">
-        <v/>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="str">
         <v/>
@@ -2074,7 +2075,7 @@
         <v/>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -2086,7 +2087,7 @@
         <v/>
       </c>
       <c r="K29" t="str">
-        <v/>
+        <v>Income 11 Mackay:House on Fire Post</v>
       </c>
       <c r="L29" t="str">
         <v/>
@@ -2115,16 +2116,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v/>
+        <v>Income in Advance</v>
       </c>
       <c r="B30" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C30" t="str">
         <v/>
       </c>
-      <c r="D30" t="str">
-        <v/>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="str">
         <v/>
@@ -2133,7 +2134,7 @@
         <v/>
       </c>
       <c r="G30" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H30" t="str">
         <v/>
@@ -2145,7 +2146,7 @@
         <v/>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>Income in Advance</v>
       </c>
       <c r="L30" t="str">
         <v/>
@@ -2174,16 +2175,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v/>
+        <v>Insurance 9 Mackay</v>
       </c>
       <c r="B31" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C31" t="str">
         <v/>
       </c>
-      <c r="D31" t="str">
-        <v/>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -2192,7 +2193,7 @@
         <v/>
       </c>
       <c r="G31" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -2204,7 +2205,7 @@
         <v/>
       </c>
       <c r="K31" t="str">
-        <v/>
+        <v>Income 9 Mackay:Insurance</v>
       </c>
       <c r="L31" t="str">
         <v/>
@@ -2233,16 +2234,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v/>
+        <v>Int Chg</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C32" t="str">
-        <v/>
-      </c>
-      <c r="D32" t="str">
-        <v/>
+        <v>Interest on Overdue Balance</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32" t="str">
         <v/>
@@ -2263,7 +2264,7 @@
         <v/>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>7020 Interest Income</v>
       </c>
       <c r="L32" t="str">
         <v/>
@@ -2292,16 +2293,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v/>
+        <v>Interest on late payment</v>
       </c>
       <c r="B33" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
-      <c r="D33" t="str">
-        <v/>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -2310,7 +2311,7 @@
         <v/>
       </c>
       <c r="G33" t="str">
-        <v/>
+        <v>Out of Scope</v>
       </c>
       <c r="H33" t="str">
         <v/>
@@ -2322,7 +2323,7 @@
         <v/>
       </c>
       <c r="K33" t="str">
-        <v/>
+        <v>7020 Interest Income</v>
       </c>
       <c r="L33" t="str">
         <v/>
@@ -2351,16 +2352,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v/>
+        <v>Internet Rent Dondoo</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
-      <c r="D34" t="str">
-        <v/>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34" t="str">
         <v/>
@@ -2369,7 +2370,7 @@
         <v/>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -2381,7 +2382,7 @@
         <v/>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>Income 11 Mackay:Internet rent from Dondoo</v>
       </c>
       <c r="L34" t="str">
         <v/>
@@ -2410,16 +2411,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v/>
+        <v>KS Dube</v>
       </c>
       <c r="B35" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C35" t="str">
         <v/>
       </c>
-      <c r="D35" t="str">
-        <v/>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -2428,7 +2429,7 @@
         <v/>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H35" t="str">
         <v/>
@@ -2440,7 +2441,7 @@
         <v/>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>Income 11 Mackay:KS Dube t/a Colours Hair &amp; Beau</v>
       </c>
       <c r="L35" t="str">
         <v/>
@@ -2469,16 +2470,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v/>
+        <v>Left</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C36" t="str">
         <v/>
       </c>
-      <c r="D36" t="str">
-        <v/>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36" t="str">
         <v/>
@@ -2487,7 +2488,7 @@
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H36" t="str">
         <v/>
@@ -2499,7 +2500,7 @@
         <v/>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>Income 11 Mackay:Left Post Productions CC</v>
       </c>
       <c r="L36" t="str">
         <v/>
@@ -2528,16 +2529,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v/>
+        <v>Level 180</v>
       </c>
       <c r="B37" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C37" t="str">
         <v/>
       </c>
-      <c r="D37" t="str">
-        <v/>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -2546,7 +2547,7 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H37" t="str">
         <v/>
@@ -2558,7 +2559,7 @@
         <v/>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>Income 11 Mackay:Level 180</v>
       </c>
       <c r="L37" t="str">
         <v/>
@@ -2587,16 +2588,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v/>
+        <v>Luna Films</v>
       </c>
       <c r="B38" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C38" t="str">
         <v/>
       </c>
-      <c r="D38" t="str">
-        <v/>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -2605,7 +2606,7 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -2617,7 +2618,7 @@
         <v/>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>Income 11 Mackay:Luna Films</v>
       </c>
       <c r="L38" t="str">
         <v/>
@@ -2646,16 +2647,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v/>
+        <v>Matthew Stonier</v>
       </c>
       <c r="B39" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C39" t="str">
         <v/>
       </c>
-      <c r="D39" t="str">
-        <v/>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -2664,7 +2665,7 @@
         <v/>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H39" t="str">
         <v/>
@@ -2676,7 +2677,7 @@
         <v/>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>Income 11 Mackay:Matthew Stonier</v>
       </c>
       <c r="L39" t="str">
         <v/>
@@ -2705,16 +2706,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v/>
+        <v>Mocap Studio Rent</v>
       </c>
       <c r="B40" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C40" t="str">
         <v/>
       </c>
-      <c r="D40" t="str">
-        <v/>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40" t="str">
         <v/>
@@ -2723,7 +2724,7 @@
         <v/>
       </c>
       <c r="G40" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H40" t="str">
         <v/>
@@ -2735,7 +2736,7 @@
         <v/>
       </c>
       <c r="K40" t="str">
-        <v/>
+        <v>Income 11 Mackay:MOCAP Rental</v>
       </c>
       <c r="L40" t="str">
         <v/>
@@ -2764,16 +2765,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v/>
+        <v>Next Post</v>
       </c>
       <c r="B41" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C41" t="str">
         <v/>
       </c>
-      <c r="D41" t="str">
-        <v/>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" t="str">
         <v/>
@@ -2782,7 +2783,7 @@
         <v/>
       </c>
       <c r="G41" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H41" t="str">
         <v/>
@@ -2794,7 +2795,7 @@
         <v/>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>Income 11 Mackay:Next Post</v>
       </c>
       <c r="L41" t="str">
         <v/>
@@ -2823,16 +2824,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>Northmotion Ins. of Development</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C42" t="str">
         <v/>
       </c>
-      <c r="D42" t="str">
-        <v/>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42" t="str">
         <v/>
@@ -2841,7 +2842,7 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2853,7 +2854,7 @@
         <v/>
       </c>
       <c r="K42" t="str">
-        <v/>
+        <v>Income 11 Mackay:Xantium Trading (Pty) Ltd:Northmotion Ins of Development</v>
       </c>
       <c r="L42" t="str">
         <v/>
@@ -2882,16 +2883,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v/>
+        <v>Operating Costs</v>
       </c>
       <c r="B43" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C43" t="str">
-        <v/>
-      </c>
-      <c r="D43" t="str">
-        <v/>
+        <v>Operating Costs</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43" t="str">
         <v/>
@@ -2900,7 +2901,7 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -2912,7 +2913,7 @@
         <v/>
       </c>
       <c r="K43" t="str">
-        <v/>
+        <v>Income 11 Mackay:Operating Costs</v>
       </c>
       <c r="L43" t="str">
         <v/>
@@ -2941,16 +2942,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v/>
+        <v>Ops Costs 11 Mackay</v>
       </c>
       <c r="B44" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C44" t="str">
         <v/>
       </c>
-      <c r="D44" t="str">
-        <v/>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44" t="str">
         <v/>
@@ -2959,7 +2960,7 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H44" t="str">
         <v/>
@@ -2971,7 +2972,7 @@
         <v/>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>Income 11 Mackay:Ops Costs</v>
       </c>
       <c r="L44" t="str">
         <v/>
@@ -3000,16 +3001,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v/>
+        <v>Oxyg3n Media</v>
       </c>
       <c r="B45" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C45" t="str">
         <v/>
       </c>
-      <c r="D45" t="str">
-        <v/>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45" t="str">
         <v/>
@@ -3018,7 +3019,7 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H45" t="str">
         <v/>
@@ -3030,7 +3031,7 @@
         <v/>
       </c>
       <c r="K45" t="str">
-        <v/>
+        <v>Income 11 Mackay:Oxyg3n Media (Pty) Ltd</v>
       </c>
       <c r="L45" t="str">
         <v/>
@@ -3059,16 +3060,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v/>
+        <v>Parking</v>
       </c>
       <c r="B46" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C46" t="str">
         <v/>
       </c>
-      <c r="D46" t="str">
-        <v/>
+      <c r="D46">
+        <v>0</v>
       </c>
       <c r="E46" t="str">
         <v/>
@@ -3077,7 +3078,7 @@
         <v/>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H46" t="str">
         <v/>
@@ -3089,7 +3090,7 @@
         <v/>
       </c>
       <c r="K46" t="str">
-        <v/>
+        <v>Income 11 Mackay:Parking</v>
       </c>
       <c r="L46" t="str">
         <v/>
@@ -3118,16 +3119,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v/>
+        <v>Patisserie De Paris</v>
       </c>
       <c r="B47" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C47" t="str">
-        <v/>
-      </c>
-      <c r="D47" t="str">
-        <v/>
+        <v>Rent</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47" t="str">
         <v/>
@@ -3136,7 +3137,7 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H47" t="str">
         <v/>
@@ -3148,7 +3149,7 @@
         <v/>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>Income 9 Mackay:Patisserie De Paris</v>
       </c>
       <c r="L47" t="str">
         <v/>
@@ -3177,16 +3178,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v/>
+        <v>Radu</v>
       </c>
       <c r="B48" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C48" t="str">
         <v/>
       </c>
-      <c r="D48" t="str">
-        <v/>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48" t="str">
         <v/>
@@ -3195,7 +3196,7 @@
         <v/>
       </c>
       <c r="G48" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H48" t="str">
         <v/>
@@ -3207,7 +3208,7 @@
         <v/>
       </c>
       <c r="K48" t="str">
-        <v/>
+        <v>Income 11 Mackay:Radu Business Enterprise</v>
       </c>
       <c r="L48" t="str">
         <v/>
@@ -3236,16 +3237,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v/>
+        <v>Rates</v>
       </c>
       <c r="B49" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C49" t="str">
-        <v/>
-      </c>
-      <c r="D49" t="str">
-        <v/>
+        <v>Rates</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49" t="str">
         <v/>
@@ -3254,7 +3255,7 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v>Zero Rated</v>
       </c>
       <c r="H49" t="str">
         <v/>
@@ -3266,7 +3267,7 @@
         <v/>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>Income 11 Mackay:Rates</v>
       </c>
       <c r="L49" t="str">
         <v/>
@@ -3295,16 +3296,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v/>
+        <v>Rates 9 Mackay</v>
       </c>
       <c r="B50" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C50" t="str">
         <v/>
       </c>
-      <c r="D50" t="str">
-        <v/>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50" t="str">
         <v/>
@@ -3313,7 +3314,7 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H50" t="str">
         <v/>
@@ -3325,7 +3326,7 @@
         <v/>
       </c>
       <c r="K50" t="str">
-        <v/>
+        <v>Income 9 Mackay:Rates 9 Mackay</v>
       </c>
       <c r="L50" t="str">
         <v/>
@@ -3354,16 +3355,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v/>
+        <v>Rates Recovered</v>
       </c>
       <c r="B51" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C51" t="str">
         <v/>
       </c>
-      <c r="D51" t="str">
-        <v/>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51" t="str">
         <v/>
@@ -3372,7 +3373,7 @@
         <v/>
       </c>
       <c r="G51" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H51" t="str">
         <v/>
@@ -3384,7 +3385,7 @@
         <v/>
       </c>
       <c r="K51" t="str">
-        <v/>
+        <v>Income 11 Mackay:Rates Income</v>
       </c>
       <c r="L51" t="str">
         <v/>
@@ -3413,16 +3414,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v/>
+        <v>Recovered Expenses 11 Mackay</v>
       </c>
       <c r="B52" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C52" t="str">
         <v/>
       </c>
-      <c r="D52" t="str">
-        <v/>
+      <c r="D52">
+        <v>0</v>
       </c>
       <c r="E52" t="str">
         <v/>
@@ -3431,7 +3432,7 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H52" t="str">
         <v/>
@@ -3443,7 +3444,7 @@
         <v/>
       </c>
       <c r="K52" t="str">
-        <v/>
+        <v>Income Recovered Expenses</v>
       </c>
       <c r="L52" t="str">
         <v/>
@@ -3472,16 +3473,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v/>
+        <v>Recovered Expenses 18 Mackay</v>
       </c>
       <c r="B53" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C53" t="str">
         <v/>
       </c>
-      <c r="D53" t="str">
-        <v/>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53" t="str">
         <v/>
@@ -3490,7 +3491,7 @@
         <v/>
       </c>
       <c r="G53" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H53" t="str">
         <v/>
@@ -3502,7 +3503,7 @@
         <v/>
       </c>
       <c r="K53" t="str">
-        <v/>
+        <v>Income 18 Mackay:Recovered Expenses</v>
       </c>
       <c r="L53" t="str">
         <v/>
@@ -3531,16 +3532,16 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v/>
+        <v>Recovered R&amp;M</v>
       </c>
       <c r="B54" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C54" t="str">
         <v/>
       </c>
-      <c r="D54" t="str">
-        <v/>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54" t="str">
         <v/>
@@ -3549,7 +3550,7 @@
         <v/>
       </c>
       <c r="G54" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H54" t="str">
         <v/>
@@ -3561,7 +3562,7 @@
         <v/>
       </c>
       <c r="K54" t="str">
-        <v/>
+        <v>6720 Repairs and Maint  - 11 Mackay</v>
       </c>
       <c r="L54" t="str">
         <v/>
@@ -3590,16 +3591,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v/>
+        <v>Red Bull</v>
       </c>
       <c r="B55" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C55" t="str">
         <v/>
       </c>
-      <c r="D55" t="str">
-        <v/>
+      <c r="D55">
+        <v>0</v>
       </c>
       <c r="E55" t="str">
         <v/>
@@ -3608,7 +3609,7 @@
         <v/>
       </c>
       <c r="G55" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H55" t="str">
         <v/>
@@ -3620,7 +3621,7 @@
         <v/>
       </c>
       <c r="K55" t="str">
-        <v/>
+        <v>Income 11 Mackay:Red Bull</v>
       </c>
       <c r="L55" t="str">
         <v/>
@@ -3649,16 +3650,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v/>
+        <v>REFUND Rep &amp; Maint 11Mac</v>
       </c>
       <c r="B56" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C56" t="str">
         <v/>
       </c>
-      <c r="D56" t="str">
-        <v/>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56" t="str">
         <v/>
@@ -3667,7 +3668,7 @@
         <v/>
       </c>
       <c r="G56" t="str">
-        <v/>
+        <v>Out of Scope</v>
       </c>
       <c r="H56" t="str">
         <v/>
@@ -3679,7 +3680,7 @@
         <v/>
       </c>
       <c r="K56" t="str">
-        <v/>
+        <v>6720 Repairs and Maint  - 11 Mackay</v>
       </c>
       <c r="L56" t="str">
         <v/>
@@ -3708,16 +3709,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v/>
+        <v>Refuse</v>
       </c>
       <c r="B57" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C57" t="str">
-        <v/>
-      </c>
-      <c r="D57" t="str">
-        <v/>
+        <v>Refuse</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57" t="str">
         <v/>
@@ -3726,7 +3727,7 @@
         <v/>
       </c>
       <c r="G57" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H57" t="str">
         <v/>
@@ -3738,7 +3739,7 @@
         <v/>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>Income 11 Mackay:Refuse</v>
       </c>
       <c r="L57" t="str">
         <v/>
@@ -3767,16 +3768,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v/>
+        <v>Refuse 18 Mackay</v>
       </c>
       <c r="B58" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C58" t="str">
         <v/>
       </c>
-      <c r="D58" t="str">
-        <v/>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58" t="str">
         <v/>
@@ -3785,7 +3786,7 @@
         <v/>
       </c>
       <c r="G58" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H58" t="str">
         <v/>
@@ -3797,7 +3798,7 @@
         <v/>
       </c>
       <c r="K58" t="str">
-        <v/>
+        <v>Income 18 Mackay:Waste Management 18 Mackay</v>
       </c>
       <c r="L58" t="str">
         <v/>
@@ -3826,16 +3827,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v/>
+        <v>Refuse 9 Mackay</v>
       </c>
       <c r="B59" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C59" t="str">
         <v/>
       </c>
-      <c r="D59" t="str">
-        <v/>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59" t="str">
         <v/>
@@ -3844,7 +3845,7 @@
         <v/>
       </c>
       <c r="G59" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H59" t="str">
         <v/>
@@ -3856,7 +3857,7 @@
         <v/>
       </c>
       <c r="K59" t="str">
-        <v/>
+        <v>Income 9 Mackay:Refuse 9 Mackay</v>
       </c>
       <c r="L59" t="str">
         <v/>
@@ -3885,16 +3886,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v/>
+        <v>Rent House B</v>
       </c>
       <c r="B60" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C60" t="str">
         <v/>
       </c>
-      <c r="D60" t="str">
-        <v/>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60" t="str">
         <v/>
@@ -3903,7 +3904,7 @@
         <v/>
       </c>
       <c r="G60" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H60" t="str">
         <v/>
@@ -3915,7 +3916,7 @@
         <v/>
       </c>
       <c r="K60" t="str">
-        <v/>
+        <v>Income 18 Mackay:Rent House B</v>
       </c>
       <c r="L60" t="str">
         <v/>
@@ -3944,16 +3945,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v/>
+        <v>Rental</v>
       </c>
       <c r="B61" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C61" t="str">
-        <v/>
-      </c>
-      <c r="D61" t="str">
-        <v/>
+        <v>Monthly Rental</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
       <c r="E61" t="str">
         <v/>
@@ -3962,7 +3963,7 @@
         <v/>
       </c>
       <c r="G61" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H61" t="str">
         <v/>
@@ -3974,7 +3975,7 @@
         <v/>
       </c>
       <c r="K61" t="str">
-        <v/>
+        <v>4200 Income 11 Mackay:Rental Income</v>
       </c>
       <c r="L61" t="str">
         <v/>
@@ -4003,16 +4004,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v/>
+        <v>Rental Deposit</v>
       </c>
       <c r="B62" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C62" t="str">
         <v/>
       </c>
-      <c r="D62" t="str">
-        <v/>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62" t="str">
         <v/>
@@ -4021,7 +4022,7 @@
         <v/>
       </c>
       <c r="G62" t="str">
-        <v/>
+        <v>Exempt</v>
       </c>
       <c r="H62" t="str">
         <v/>
@@ -4033,7 +4034,7 @@
         <v/>
       </c>
       <c r="K62" t="str">
-        <v/>
+        <v>2480 Tenant Deposits Held 11 Mackay</v>
       </c>
       <c r="L62" t="str">
         <v/>
@@ -4062,16 +4063,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v/>
+        <v>Rep &amp; Maint 18 Mackay</v>
       </c>
       <c r="B63" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C63" t="str">
         <v/>
       </c>
-      <c r="D63" t="str">
-        <v/>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63" t="str">
         <v/>
@@ -4080,7 +4081,7 @@
         <v/>
       </c>
       <c r="G63" t="str">
-        <v/>
+        <v>Out of Scope</v>
       </c>
       <c r="H63" t="str">
         <v/>
@@ -4092,7 +4093,7 @@
         <v/>
       </c>
       <c r="K63" t="str">
-        <v/>
+        <v>Income 18 Mackay</v>
       </c>
       <c r="L63" t="str">
         <v/>
@@ -4121,16 +4122,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v/>
+        <v>Repairs &amp; Maintenance</v>
       </c>
       <c r="B64" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C64" t="str">
         <v/>
       </c>
-      <c r="D64" t="str">
-        <v/>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64" t="str">
         <v/>
@@ -4139,7 +4140,7 @@
         <v/>
       </c>
       <c r="G64" t="str">
-        <v/>
+        <v>Out of Scope</v>
       </c>
       <c r="H64" t="str">
         <v/>
@@ -4151,7 +4152,7 @@
         <v/>
       </c>
       <c r="K64" t="str">
-        <v/>
+        <v>Repairs &amp; Maint - 18 Mackay</v>
       </c>
       <c r="L64" t="str">
         <v/>
@@ -4180,16 +4181,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v/>
+        <v>Robot TV</v>
       </c>
       <c r="B65" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C65" t="str">
         <v/>
       </c>
-      <c r="D65" t="str">
-        <v/>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65" t="str">
         <v/>
@@ -4198,7 +4199,7 @@
         <v/>
       </c>
       <c r="G65" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H65" t="str">
         <v/>
@@ -4210,7 +4211,7 @@
         <v/>
       </c>
       <c r="K65" t="str">
-        <v/>
+        <v>Income 11 Mackay:Robot TV</v>
       </c>
       <c r="L65" t="str">
         <v/>
@@ -4239,16 +4240,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v/>
+        <v>S'Curl and Cutt</v>
       </c>
       <c r="B66" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C66" t="str">
         <v/>
       </c>
-      <c r="D66" t="str">
-        <v/>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66" t="str">
         <v/>
@@ -4257,7 +4258,7 @@
         <v/>
       </c>
       <c r="G66" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -4269,7 +4270,7 @@
         <v/>
       </c>
       <c r="K66" t="str">
-        <v/>
+        <v>Income 11 Mackay:S'Curl and Cutt</v>
       </c>
       <c r="L66" t="str">
         <v/>
@@ -4298,10 +4299,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v/>
+        <v>Sales</v>
       </c>
       <c r="B67" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C67" t="str">
         <v/>
@@ -4328,7 +4329,7 @@
         <v/>
       </c>
       <c r="K67" t="str">
-        <v/>
+        <v>Sales</v>
       </c>
       <c r="L67" t="str">
         <v/>
@@ -4357,16 +4358,16 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v/>
+        <v>Sam ML Dikgale</v>
       </c>
       <c r="B68" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C68" t="str">
         <v/>
       </c>
-      <c r="D68" t="str">
-        <v/>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68" t="str">
         <v/>
@@ -4375,7 +4376,7 @@
         <v/>
       </c>
       <c r="G68" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H68" t="str">
         <v/>
@@ -4387,7 +4388,7 @@
         <v/>
       </c>
       <c r="K68" t="str">
-        <v/>
+        <v>Income 11 Mackay:Sam ML Dikgale</v>
       </c>
       <c r="L68" t="str">
         <v/>
@@ -4416,16 +4417,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v/>
+        <v>Santam Claims</v>
       </c>
       <c r="B69" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C69" t="str">
         <v/>
       </c>
-      <c r="D69" t="str">
-        <v/>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69" t="str">
         <v/>
@@ -4434,7 +4435,7 @@
         <v/>
       </c>
       <c r="G69" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H69" t="str">
         <v/>
@@ -4446,7 +4447,7 @@
         <v/>
       </c>
       <c r="K69" t="str">
-        <v/>
+        <v>Insurance Claims</v>
       </c>
       <c r="L69" t="str">
         <v/>
@@ -4475,16 +4476,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v/>
+        <v>Santam Claims Refund</v>
       </c>
       <c r="B70" t="str">
-        <v/>
+        <v>Service</v>
       </c>
       <c r="C70" t="str">
         <v/>
       </c>
-      <c r="D70" t="str">
-        <v/>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70" t="str">
         <v/>
@@ -4493,7 +4494,7 @@
         <v/>
       </c>
       <c r="G70" t="str">
-        <v/>
+        <v>Standard</v>
       </c>
       <c r="H70" t="str">
         <v/>
@@ -4505,7 +4506,7 @@
         <v/>
       </c>
       <c r="K70" t="str">
-        <v/>
+        <v>6330 Insurance Expense</v>
       </c>
       <c r="L70" t="str">
         <v/>
@@ -4529,12 +4530,1251 @@
         <v/>
       </c>
       <c r="S70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Savage Design</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C71" t="str">
+        <v/>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="F71" t="str">
+        <v/>
+      </c>
+      <c r="G71" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <v>Income 11 Mackay:Savage Design (Pty) Ltd</v>
+      </c>
+      <c r="L71" t="str">
+        <v/>
+      </c>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+      <c r="N71" t="str">
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <v/>
+      </c>
+      <c r="P71" t="str">
+        <v/>
+      </c>
+      <c r="Q71" t="str">
+        <v/>
+      </c>
+      <c r="R71" t="str">
+        <v/>
+      </c>
+      <c r="S71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Security</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Security</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <v/>
+      </c>
+      <c r="G72" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H72" t="str">
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <v>Income 11 Mackay:Security</v>
+      </c>
+      <c r="L72" t="str">
+        <v/>
+      </c>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+      <c r="N72" t="str">
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <v/>
+      </c>
+      <c r="P72" t="str">
+        <v/>
+      </c>
+      <c r="Q72" t="str">
+        <v/>
+      </c>
+      <c r="R72" t="str">
+        <v/>
+      </c>
+      <c r="S72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Sphere Collective</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C73" t="str">
+        <v/>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <v>Income 11 Mackay:Sphere Collective</v>
+      </c>
+      <c r="L73" t="str">
+        <v/>
+      </c>
+      <c r="M73" t="str">
+        <v/>
+      </c>
+      <c r="N73" t="str">
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <v/>
+      </c>
+      <c r="P73" t="str">
+        <v/>
+      </c>
+      <c r="Q73" t="str">
+        <v/>
+      </c>
+      <c r="R73" t="str">
+        <v/>
+      </c>
+      <c r="S73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Sundry 9 Mackay</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C74" t="str">
+        <v/>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v/>
+      </c>
+      <c r="F74" t="str">
+        <v/>
+      </c>
+      <c r="G74" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H74" t="str">
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <v>Income 9 Mackay:Sundry 9 Mackay</v>
+      </c>
+      <c r="L74" t="str">
+        <v/>
+      </c>
+      <c r="M74" t="str">
+        <v/>
+      </c>
+      <c r="N74" t="str">
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <v/>
+      </c>
+      <c r="P74" t="str">
+        <v/>
+      </c>
+      <c r="Q74" t="str">
+        <v/>
+      </c>
+      <c r="R74" t="str">
+        <v/>
+      </c>
+      <c r="S74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Suspense Account</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C75" t="str">
+        <v/>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H75" t="str">
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <v>Suspense Account</v>
+      </c>
+      <c r="L75" t="str">
+        <v/>
+      </c>
+      <c r="M75" t="str">
+        <v/>
+      </c>
+      <c r="N75" t="str">
+        <v/>
+      </c>
+      <c r="O75" t="str">
+        <v/>
+      </c>
+      <c r="P75" t="str">
+        <v/>
+      </c>
+      <c r="Q75" t="str">
+        <v/>
+      </c>
+      <c r="R75" t="str">
+        <v/>
+      </c>
+      <c r="S75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Tenant Deposit 11 Mackay</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C76" t="str">
+        <v/>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <v/>
+      </c>
+      <c r="F76" t="str">
+        <v/>
+      </c>
+      <c r="G76" t="str">
+        <v>Out of Scope</v>
+      </c>
+      <c r="H76" t="str">
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <v>2480 Tenant Deposits Held 11 Mackay</v>
+      </c>
+      <c r="L76" t="str">
+        <v/>
+      </c>
+      <c r="M76" t="str">
+        <v/>
+      </c>
+      <c r="N76" t="str">
+        <v/>
+      </c>
+      <c r="O76" t="str">
+        <v/>
+      </c>
+      <c r="P76" t="str">
+        <v/>
+      </c>
+      <c r="Q76" t="str">
+        <v/>
+      </c>
+      <c r="R76" t="str">
+        <v/>
+      </c>
+      <c r="S76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Tenant Deposits 18 Mackay</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <v>Out of Scope</v>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <v>Tenant deposits held 18 Mackay</v>
+      </c>
+      <c r="L77" t="str">
+        <v/>
+      </c>
+      <c r="M77" t="str">
+        <v/>
+      </c>
+      <c r="N77" t="str">
+        <v/>
+      </c>
+      <c r="O77" t="str">
+        <v/>
+      </c>
+      <c r="P77" t="str">
+        <v/>
+      </c>
+      <c r="Q77" t="str">
+        <v/>
+      </c>
+      <c r="R77" t="str">
+        <v/>
+      </c>
+      <c r="S77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Tenant Deposits 9 Mackay</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C78" t="str">
+        <v/>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <v>Out of Scope</v>
+      </c>
+      <c r="H78" t="str">
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <v>Tenant Deposits Held 9 Mackay</v>
+      </c>
+      <c r="L78" t="str">
+        <v/>
+      </c>
+      <c r="M78" t="str">
+        <v/>
+      </c>
+      <c r="N78" t="str">
+        <v/>
+      </c>
+      <c r="O78" t="str">
+        <v/>
+      </c>
+      <c r="P78" t="str">
+        <v/>
+      </c>
+      <c r="Q78" t="str">
+        <v/>
+      </c>
+      <c r="R78" t="str">
+        <v/>
+      </c>
+      <c r="S78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>The Rudeboy Collective</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C79" t="str">
+        <v/>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H79" t="str">
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <v>Income 11 Mackay:The Rudeboy Collective</v>
+      </c>
+      <c r="L79" t="str">
+        <v/>
+      </c>
+      <c r="M79" t="str">
+        <v/>
+      </c>
+      <c r="N79" t="str">
+        <v/>
+      </c>
+      <c r="O79" t="str">
+        <v/>
+      </c>
+      <c r="P79" t="str">
+        <v/>
+      </c>
+      <c r="Q79" t="str">
+        <v/>
+      </c>
+      <c r="R79" t="str">
+        <v/>
+      </c>
+      <c r="S79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>They Shoot Films</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C80" t="str">
+        <v/>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H80" t="str">
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <v>Income 11 Mackay:They Shoot Films</v>
+      </c>
+      <c r="L80" t="str">
+        <v/>
+      </c>
+      <c r="M80" t="str">
+        <v/>
+      </c>
+      <c r="N80" t="str">
+        <v/>
+      </c>
+      <c r="O80" t="str">
+        <v/>
+      </c>
+      <c r="P80" t="str">
+        <v/>
+      </c>
+      <c r="Q80" t="str">
+        <v/>
+      </c>
+      <c r="R80" t="str">
+        <v/>
+      </c>
+      <c r="S80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Torque (Y&amp;V Agency)</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C81" t="str">
+        <v/>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v/>
+      </c>
+      <c r="F81" t="str">
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H81" t="str">
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <v/>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <v>Income 11 Mackay:Torque (Y&amp;V Agency)</v>
+      </c>
+      <c r="L81" t="str">
+        <v/>
+      </c>
+      <c r="M81" t="str">
+        <v/>
+      </c>
+      <c r="N81" t="str">
+        <v/>
+      </c>
+      <c r="O81" t="str">
+        <v/>
+      </c>
+      <c r="P81" t="str">
+        <v/>
+      </c>
+      <c r="Q81" t="str">
+        <v/>
+      </c>
+      <c r="R81" t="str">
+        <v/>
+      </c>
+      <c r="S81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Transvaal</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C82" t="str">
+        <v/>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H82" t="str">
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <v/>
+      </c>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <v>Income 11 Mackay:Transvaal (Pty) Ltd</v>
+      </c>
+      <c r="L82" t="str">
+        <v/>
+      </c>
+      <c r="M82" t="str">
+        <v/>
+      </c>
+      <c r="N82" t="str">
+        <v/>
+      </c>
+      <c r="O82" t="str">
+        <v/>
+      </c>
+      <c r="P82" t="str">
+        <v/>
+      </c>
+      <c r="Q82" t="str">
+        <v/>
+      </c>
+      <c r="R82" t="str">
+        <v/>
+      </c>
+      <c r="S82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Unit 1B-3 Temp Rentals</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C83" t="str">
+        <v/>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <v/>
+      </c>
+      <c r="F83" t="str">
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H83" t="str">
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <v/>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <v>Income 11 Mackay:Unit 1B-3 Part Time Rentals</v>
+      </c>
+      <c r="L83" t="str">
+        <v/>
+      </c>
+      <c r="M83" t="str">
+        <v/>
+      </c>
+      <c r="N83" t="str">
+        <v/>
+      </c>
+      <c r="O83" t="str">
+        <v/>
+      </c>
+      <c r="P83" t="str">
+        <v/>
+      </c>
+      <c r="Q83" t="str">
+        <v/>
+      </c>
+      <c r="R83" t="str">
+        <v/>
+      </c>
+      <c r="S83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Voice Overs</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C84" t="str">
+        <v/>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v/>
+      </c>
+      <c r="F84" t="str">
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v>Income 11 Mackay:Voice Overs &amp; Stuff</v>
+      </c>
+      <c r="L84" t="str">
+        <v/>
+      </c>
+      <c r="M84" t="str">
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <v/>
+      </c>
+      <c r="P84" t="str">
+        <v/>
+      </c>
+      <c r="Q84" t="str">
+        <v/>
+      </c>
+      <c r="R84" t="str">
+        <v/>
+      </c>
+      <c r="S84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Waste Management 11 Mackay</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C85" t="str">
+        <v/>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v/>
+      </c>
+      <c r="F85" t="str">
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H85" t="str">
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <v>Income 11 Mackay:Waste Management 11 Mackay</v>
+      </c>
+      <c r="L85" t="str">
+        <v/>
+      </c>
+      <c r="M85" t="str">
+        <v/>
+      </c>
+      <c r="N85" t="str">
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <v/>
+      </c>
+      <c r="P85" t="str">
+        <v/>
+      </c>
+      <c r="Q85" t="str">
+        <v/>
+      </c>
+      <c r="R85" t="str">
+        <v/>
+      </c>
+      <c r="S85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Water</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Water estimate</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v/>
+      </c>
+      <c r="F86" t="str">
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H86" t="str">
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v>Income 11 Mackay:Water</v>
+      </c>
+      <c r="L86" t="str">
+        <v/>
+      </c>
+      <c r="M86" t="str">
+        <v/>
+      </c>
+      <c r="N86" t="str">
+        <v/>
+      </c>
+      <c r="O86" t="str">
+        <v/>
+      </c>
+      <c r="P86" t="str">
+        <v/>
+      </c>
+      <c r="Q86" t="str">
+        <v/>
+      </c>
+      <c r="R86" t="str">
+        <v/>
+      </c>
+      <c r="S86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Water &amp; Sanitation 9 Mackay</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C87" t="str">
+        <v/>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <v/>
+      </c>
+      <c r="F87" t="str">
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H87" t="str">
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <v>Income 9 Mackay:Water 9 Mackay</v>
+      </c>
+      <c r="L87" t="str">
+        <v/>
+      </c>
+      <c r="M87" t="str">
+        <v/>
+      </c>
+      <c r="N87" t="str">
+        <v/>
+      </c>
+      <c r="O87" t="str">
+        <v/>
+      </c>
+      <c r="P87" t="str">
+        <v/>
+      </c>
+      <c r="Q87" t="str">
+        <v/>
+      </c>
+      <c r="R87" t="str">
+        <v/>
+      </c>
+      <c r="S87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Water 11 Mackay</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C88" t="str">
+        <v/>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v/>
+      </c>
+      <c r="F88" t="str">
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H88" t="str">
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <v>Income 11 Mackay:Water 11 Mackay</v>
+      </c>
+      <c r="L88" t="str">
+        <v/>
+      </c>
+      <c r="M88" t="str">
+        <v/>
+      </c>
+      <c r="N88" t="str">
+        <v/>
+      </c>
+      <c r="O88" t="str">
+        <v/>
+      </c>
+      <c r="P88" t="str">
+        <v/>
+      </c>
+      <c r="Q88" t="str">
+        <v/>
+      </c>
+      <c r="R88" t="str">
+        <v/>
+      </c>
+      <c r="S88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Water 18 Mackay</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C89" t="str">
+        <v/>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v/>
+      </c>
+      <c r="F89" t="str">
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <v>Exempt</v>
+      </c>
+      <c r="H89" t="str">
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <v>Income 18 Mackay:Water 18 Mackay</v>
+      </c>
+      <c r="L89" t="str">
+        <v/>
+      </c>
+      <c r="M89" t="str">
+        <v/>
+      </c>
+      <c r="N89" t="str">
+        <v/>
+      </c>
+      <c r="O89" t="str">
+        <v/>
+      </c>
+      <c r="P89" t="str">
+        <v/>
+      </c>
+      <c r="Q89" t="str">
+        <v/>
+      </c>
+      <c r="R89" t="str">
+        <v/>
+      </c>
+      <c r="S89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Wishbones</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C90" t="str">
+        <v/>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v/>
+      </c>
+      <c r="F90" t="str">
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H90" t="str">
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <v/>
+      </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <v>Income 11 Mackay:Wishbones CC</v>
+      </c>
+      <c r="L90" t="str">
+        <v/>
+      </c>
+      <c r="M90" t="str">
+        <v/>
+      </c>
+      <c r="N90" t="str">
+        <v/>
+      </c>
+      <c r="O90" t="str">
+        <v/>
+      </c>
+      <c r="P90" t="str">
+        <v/>
+      </c>
+      <c r="Q90" t="str">
+        <v/>
+      </c>
+      <c r="R90" t="str">
+        <v/>
+      </c>
+      <c r="S90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Xantium Trading 506</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Service</v>
+      </c>
+      <c r="C91" t="str">
+        <v/>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <v/>
+      </c>
+      <c r="F91" t="str">
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <v>Standard</v>
+      </c>
+      <c r="H91" t="str">
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <v/>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <v>Income 11 Mackay:Xantium Trading (Pty) Ltd</v>
+      </c>
+      <c r="L91" t="str">
+        <v/>
+      </c>
+      <c r="M91" t="str">
+        <v/>
+      </c>
+      <c r="N91" t="str">
+        <v/>
+      </c>
+      <c r="O91" t="str">
+        <v/>
+      </c>
+      <c r="P91" t="str">
+        <v/>
+      </c>
+      <c r="Q91" t="str">
+        <v/>
+      </c>
+      <c r="R91" t="str">
+        <v/>
+      </c>
+      <c r="S91" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S91"/>
   </ignoredErrors>
 </worksheet>
 </file>